--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HK2- Năm Nhất\TH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{779B00FB-4B2F-4479-A122-5475CE72300D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663B97C0-EC3C-432F-A63F-079AF34FD987}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{F933739D-AB36-4AF1-ACF0-DACC2749C488}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{F933739D-AB36-4AF1-ACF0-DACC2749C488}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Trình Độ Chuyên Môn Kỹ Thuật</t>
   </si>
@@ -56,12 +57,57 @@
   <si>
     <t>Tổng</t>
   </si>
+  <si>
+    <t>Nhóm nghề nghiệp</t>
+  </si>
+  <si>
+    <t>Nhà lãnh đạo</t>
+  </si>
+  <si>
+    <t>Chuyên môn kỹ thuật bậc cao</t>
+  </si>
+  <si>
+    <t>Chuyên môn kỹ thuật bậc trung</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>Dịch vụ cá nhân, bảo vệ bán hàng</t>
+  </si>
+  <si>
+    <t>Nghề trong nông lâm ngư nghiệp</t>
+  </si>
+  <si>
+    <t>Thợ thủ công và các thợ khác có liên quan</t>
+  </si>
+  <si>
+    <t>Thợ lắp ráp và vận hành máy móc thiết bị</t>
+  </si>
+  <si>
+    <t>Nghề giản đơn</t>
+  </si>
+  <si>
+    <t>Không phân loại</t>
+  </si>
+  <si>
+    <t>Năm 2017</t>
+  </si>
+  <si>
+    <t>Năm 2016</t>
+  </si>
+  <si>
+    <t>Năm 2015</t>
+  </si>
+  <si>
+    <t>Năm 2014</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +118,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -98,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -111,6 +172,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,7 +607,709 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5910305410929904E-2"/>
+          <c:y val="1.6460363353222825E-2"/>
+          <c:w val="0.93408967137534771"/>
+          <c:h val="0.72073764025001585"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Năm 2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Nhà lãnh đạo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chuyên môn kỹ thuật bậc cao</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chuyên môn kỹ thuật bậc trung</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nhân viên</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dịch vụ cá nhân, bảo vệ bán hàng</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Nghề trong nông lâm ngư nghiệp</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Thợ thủ công và các thợ khác có liên quan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Thợ lắp ráp và vận hành máy móc thiết bị</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nghề giản đơn</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Không phân loại</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.372</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A910-4E36-BFCA-992047F6E0B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Năm 2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Nhà lãnh đạo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chuyên môn kỹ thuật bậc cao</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chuyên môn kỹ thuật bậc trung</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nhân viên</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dịch vụ cá nhân, bảo vệ bán hàng</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Nghề trong nông lâm ngư nghiệp</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Thợ thủ công và các thợ khác có liên quan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Thợ lắp ráp và vận hành máy móc thiết bị</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nghề giản đơn</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Không phân loại</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0%">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A910-4E36-BFCA-992047F6E0B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Năm 2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Nhà lãnh đạo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chuyên môn kỹ thuật bậc cao</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chuyên môn kỹ thuật bậc trung</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nhân viên</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dịch vụ cá nhân, bảo vệ bán hàng</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Nghề trong nông lâm ngư nghiệp</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Thợ thủ công và các thợ khác có liên quan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Thợ lắp ráp và vận hành máy móc thiết bị</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nghề giản đơn</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Không phân loại</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0%">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39900000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A910-4E36-BFCA-992047F6E0B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Năm 2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Nhà lãnh đạo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chuyên môn kỹ thuật bậc cao</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chuyên môn kỹ thuật bậc trung</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nhân viên</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dịch vụ cá nhân, bảo vệ bán hàng</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Nghề trong nông lâm ngư nghiệp</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Thợ thủ công và các thợ khác có liên quan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Thợ lắp ráp và vận hành máy móc thiết bị</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nghề giản đơn</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Không phân loại</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0%">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0%">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A910-4E36-BFCA-992047F6E0B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="523889528"/>
+        <c:axId val="523889208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="523889528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523889208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="523889208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523889528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1104,6 +1880,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1125,6 +2404,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5F183A-AC72-4154-911E-47EE12A71EF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>777752</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>376517</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>18569</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A97DEE7-8011-4A85-8EF2-C5BFD23D2880}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +2764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3463C77F-4038-4944-99DC-ABE55E1A1EE9}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1515,4 +2835,211 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03835BFE-C478-4D53-9A70-DAB238F9A476}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.5546875" customWidth="1"/>
+    <col min="2" max="5" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.104</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.128</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.372</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.38</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>